--- a/Data/Config/Config.xlsx
+++ b/Data/Config/Config.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\Project File\HCGS SF Email\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptngw-my.sharepoint.com/personal/annisa_pt-ngw_com/Documents/ABL/ABS System Log Summary and Notification/Data/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC8E6D3-26F6-413E-B4B3-2F42C647C53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C1B4142B-912E-4BF6-AA34-7E09BAA585F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB71A444-B763-46C1-9FAE-C0EEF32BAE92}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="6" r:id="rId1"/>
+    <sheet name="InterfaceInformation" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Value</t>
   </si>
@@ -36,7 +34,97 @@
     <t>Description</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Folder Name</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Param Success</t>
+  </si>
+  <si>
+    <t>Param Warning</t>
+  </si>
+  <si>
+    <t>Param Failed</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>AccountBudget</t>
+  </si>
+  <si>
+    <t>AssetManagement</t>
+  </si>
+  <si>
+    <t>CurrencyExchange</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>MaterialReceipt</t>
+  </si>
+  <si>
+    <t>Purchasing</t>
+  </si>
+  <si>
+    <t>TransferOrder</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>PODelivery</t>
+  </si>
+  <si>
+    <t>Reconciliation</t>
+  </si>
+  <si>
+    <t>{0}\{1}\Import\log</t>
+  </si>
+  <si>
+    <t>{0}\Purchasing\Import\{1}\log</t>
+  </si>
+  <si>
+    <t>{0}\{1}\Import\Part\log</t>
+  </si>
+  <si>
+    <t>{0}\AssetManagement\Import\{1}\log</t>
+  </si>
+  <si>
+    <t>{0}\{1}\log</t>
+  </si>
+  <si>
+    <t>Ket:</t>
+  </si>
+  <si>
+    <t>{0}</t>
+  </si>
+  <si>
+    <t>C:\....\interface</t>
+  </si>
+  <si>
+    <t>{1}</t>
+  </si>
+  <si>
+    <t>Template Path</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>InterfaceFolder</t>
+  </si>
+  <si>
+    <t>Path interface folder</t>
+  </si>
+  <si>
+    <t>ExceptionFolder</t>
+  </si>
+  <si>
+    <t>Path exception folder</t>
   </si>
 </sst>
 </file>
@@ -361,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694A9A31-2F59-4530-9457-3AA675D67458}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,24 +464,176 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930A4BDC-C872-4B5A-A859-C733423EF792}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
